--- a/Banco Central/11/1/Energía 1993 a 2021 - Mensual.xlsx
+++ b/Banco Central/11/1/Energía 1993 a 2021 - Mensual.xlsx
@@ -3927,6 +3927,9 @@
       <c r="B271">
         <v>6781.7</v>
       </c>
+      <c r="C271">
+        <v>108.9</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
